--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_10_end.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_10_end.xlsx
@@ -1592,7 +1592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My benefactor, there seems to be a burnt smell lingering in the air...
+    <t xml:space="preserve">[name="Mr. Nothing"]My benefactor, there seems to be a burnt smell lingering in the air...
 </t>
   </si>
   <si>
@@ -1676,7 +1676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Saga"]Hm? Is that not Lava? Kroos and Mr.Nothing, too.
+    <t xml:space="preserve">[name="Saga"]Hm? Is that not Lava? Kroos and Mr. Nothing, too.
 </t>
   </si>
   <si>
@@ -1840,7 +1840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]A-Alright.
+    <t xml:space="preserve">[name="Mr. Nothing"]A-Alright.
 </t>
   </si>
   <si>
@@ -1920,7 +1920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My benefactors! My benefactors! Uh, I have something I would like to mention.
+    <t xml:space="preserve">[name="Mr. Nothing"]My benefactors! My benefactors! Uh, I have something I would like to mention.
 </t>
   </si>
   <si>
@@ -1928,11 +1928,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Well, you see, I was hoping to make my way to Lungmen to find myself a job, but it appears you are all employed by this... 'Rhodes Island.' Is this island maybe hiring?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I can do anything! I am healthy and hale, quite ripped even! And I most certainly am not afraid of the Infected! I guarantee you'll get your money's worth!
+    <t xml:space="preserve">[name="Mr. Nothing"]Well, you see, I was hoping to make my way to Lungmen to find myself a job, but it appears you are all employed by this... 'Rhodes Island.' Is this island maybe hiring?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]I can do anything! I am healthy and hale, quite ripped even! And I most certainly am not afraid of the Infected! I guarantee you'll get your money's worth!
 </t>
   </si>
   <si>
@@ -1940,7 +1940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Very well, then please allow me to accompany you on your journey!
+    <t xml:space="preserve">[name="Mr. Nothing"]Very well, then please allow me to accompany you on your journey!
 </t>
   </si>
   <si>
@@ -2024,7 +2024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lava"]Mr.Nothing, there's been a car tailing us for a while, right?
+    <t xml:space="preserve">[name="Lava"]Mr. Nothing, there's been a car tailing us for a while, right?
 </t>
   </si>
   <si>
@@ -2032,7 +2032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]I won't trouble you so... Allow me to take care of this myself.
+    <t xml:space="preserve">[name="Mr. Nothing"]I won't trouble you so... Allow me to take care of this myself.
 </t>
   </si>
   <si>
@@ -2040,11 +2040,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Why, I needn't use the fan to take care of these hooligans!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]If they dare do evil beyond the city gates under broad daylight, then there truly is no law and order left in this world! I'll teach them a lesson today—
+    <t xml:space="preserve">[name="Mr. Nothing"]Why, I needn't use the fan to take care of these hooligans!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]If they dare do evil beyond the city gates under broad daylight, then there truly is no law and order left in this world! I'll teach them a lesson today—
 </t>
   </si>
   <si>
@@ -2056,11 +2056,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]...M-My benefactors?
+    <t xml:space="preserve">[name="Mr. Nothing"]......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]...M-My benefactors?
 </t>
   </si>
   <si>
@@ -2336,11 +2336,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="니엔"]라바~
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="라바"]네?
+    <t xml:space="preserve">[name="니엔"]라바.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="라바"]어?
 </t>
   </si>
   <si>
@@ -2660,7 +2660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="시"]어.
+    <t xml:space="preserve">[name="시"]그래.
 </t>
   </si>
   <si>
